--- a/Particles_21h.xlsx
+++ b/Particles_21h.xlsx
@@ -454,7 +454,7 @@
         <v>406657.255555556</v>
       </c>
       <c r="L2">
-        <v>26.65958197384422</v>
+        <v>27.00775950498002</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         <v>942604.04604938</v>
       </c>
       <c r="L3">
-        <v>63.60620041141401</v>
+        <v>64.7315193432497</v>
       </c>
     </row>
     <row r="4">
@@ -530,7 +530,7 @@
         <v>1139770.72296296</v>
       </c>
       <c r="L4">
-        <v>77.7164954657365</v>
+        <v>79.21877659909609</v>
       </c>
     </row>
     <row r="5">
@@ -568,7 +568,7 @@
         <v>1066722.64345679</v>
       </c>
       <c r="L5">
-        <v>72.45628290063768</v>
+        <v>73.81319172149171</v>
       </c>
     </row>
     <row r="6">
@@ -606,7 +606,7 @@
         <v>1744894.16925926</v>
       </c>
       <c r="L6">
-        <v>122.7628067974837</v>
+        <v>125.7278763660457</v>
       </c>
     </row>
     <row r="7">
@@ -644,7 +644,7 @@
         <v>2129572.49975309</v>
       </c>
       <c r="L7">
-        <v>152.7638555628342</v>
+        <v>156.8986988526599</v>
       </c>
     </row>
     <row r="8">
@@ -682,7 +682,7 @@
         <v>88757.42555555602</v>
       </c>
       <c r="L8">
-        <v>5.717593180030772</v>
+        <v>5.775810700136594</v>
       </c>
     </row>
     <row r="9">
@@ -720,7 +720,7 @@
         <v>1682434.19271605</v>
       </c>
       <c r="L9">
-        <v>117.9916783070589</v>
+        <v>120.7844072547652</v>
       </c>
     </row>
     <row r="10">
@@ -758,7 +758,7 @@
         <v>3057404.22530864</v>
       </c>
       <c r="L10">
-        <v>229.4911891822962</v>
+        <v>237.2146956935506</v>
       </c>
     </row>
     <row r="11">
@@ -796,7 +796,7 @@
         <v>1921036.45728395</v>
       </c>
       <c r="L11">
-        <v>136.3684530486187</v>
+        <v>139.8460149972239</v>
       </c>
     </row>
     <row r="12">
@@ -834,7 +834,7 @@
         <v>3029357.24938272</v>
       </c>
       <c r="L12">
-        <v>227.081363845062</v>
+        <v>234.6804915616559</v>
       </c>
     </row>
     <row r="13">
@@ -872,7 +872,7 @@
         <v>3424787.76</v>
       </c>
       <c r="L13">
-        <v>261.5779741717493</v>
+        <v>271.0222246844081</v>
       </c>
     </row>
     <row r="14">
@@ -910,7 +910,7 @@
         <v>4947475.3762963</v>
       </c>
       <c r="L14">
-        <v>404.8850542882166</v>
+        <v>423.2743724514011</v>
       </c>
     </row>
     <row r="15">
@@ -948,7 +948,7 @@
         <v>3227858.14209877</v>
       </c>
       <c r="L15">
-        <v>244.2580663535964</v>
+        <v>252.7587941957291</v>
       </c>
     </row>
     <row r="16">
@@ -986,7 +986,7 @@
         <v>2270964.58518519</v>
       </c>
       <c r="L16">
-        <v>164.0576792379584</v>
+        <v>168.6693444817837</v>
       </c>
     </row>
     <row r="17">
@@ -1024,7 +1024,7 @@
         <v>3603773.9854321</v>
       </c>
       <c r="L17">
-        <v>277.5609776392042</v>
+        <v>287.9051698014521</v>
       </c>
     </row>
     <row r="18">
@@ -1062,7 +1062,7 @@
         <v>2260084.77469136</v>
       </c>
       <c r="L18">
-        <v>163.1835537895344</v>
+        <v>167.757634063288</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1100,7 @@
         <v>4287006.05061728</v>
       </c>
       <c r="L19">
-        <v>340.6837266923022</v>
+        <v>354.834335475831</v>
       </c>
     </row>
     <row r="20">
@@ -1138,7 +1138,7 @@
         <v>489547.85962963</v>
       </c>
       <c r="L20">
-        <v>32.23918853038089</v>
+        <v>32.68390122348548</v>
       </c>
     </row>
     <row r="21">
@@ -1176,7 +1176,7 @@
         <v>2612074.64123457</v>
       </c>
       <c r="L21">
-        <v>191.8942026471358</v>
+        <v>197.7598958086464</v>
       </c>
     </row>
     <row r="22">
@@ -1214,7 +1214,7 @@
         <v>3130611.31271605</v>
       </c>
       <c r="L22">
-        <v>235.8077921259298</v>
+        <v>243.860617044082</v>
       </c>
     </row>
     <row r="23">
@@ -1252,7 +1252,7 @@
         <v>9048568.595061701</v>
       </c>
       <c r="L23">
-        <v>873.5408350694947</v>
+        <v>930.55223020684</v>
       </c>
     </row>
     <row r="24">
@@ -1290,7 +1290,7 @@
         <v>11256313.3193827</v>
       </c>
       <c r="L24">
-        <v>1175.765637288074</v>
+        <v>1262.343316692494</v>
       </c>
     </row>
     <row r="25">
@@ -1328,7 +1328,7 @@
         <v>1752620.59444444</v>
       </c>
       <c r="L25">
-        <v>123.3549491327224</v>
+        <v>126.3416792266737</v>
       </c>
     </row>
     <row r="26">
@@ -1366,7 +1366,7 @@
         <v>2469328.79530864</v>
       </c>
       <c r="L26">
-        <v>180.1438169264193</v>
+        <v>185.4668925641889</v>
       </c>
     </row>
     <row r="27">
@@ -1404,7 +1404,7 @@
         <v>2000303.23259259</v>
       </c>
       <c r="L27">
-        <v>142.5637858942035</v>
+        <v>146.2847320378209</v>
       </c>
     </row>
     <row r="28">
@@ -1442,7 +1442,7 @@
         <v>10539226.6883951</v>
       </c>
       <c r="L28">
-        <v>1073.769378320052</v>
+        <v>1150.070352822398</v>
       </c>
     </row>
     <row r="29">
@@ -1480,7 +1480,7 @@
         <v>1452790.00950617</v>
       </c>
       <c r="L29">
-        <v>100.6903363493651</v>
+        <v>102.891687606453</v>
       </c>
     </row>
     <row r="30">
@@ -1518,7 +1518,7 @@
         <v>73977.31382715999</v>
       </c>
       <c r="L30">
-        <v>4.761565241336434</v>
+        <v>4.809399394698212</v>
       </c>
     </row>
     <row r="31">
@@ -1556,7 +1556,7 @@
         <v>2792486.0791358</v>
       </c>
       <c r="L31">
-        <v>206.9541106028743</v>
+        <v>213.5423287067212</v>
       </c>
     </row>
     <row r="32">
@@ -1594,7 +1594,7 @@
         <v>2105947.87814815</v>
       </c>
       <c r="L32">
-        <v>150.8907930180304</v>
+        <v>154.9484221181696</v>
       </c>
     </row>
     <row r="33">
@@ -1632,7 +1632,7 @@
         <v>2274765.66111111</v>
       </c>
       <c r="L33">
-        <v>164.3632722217205</v>
+        <v>168.9881036705585</v>
       </c>
     </row>
     <row r="34">
@@ -1670,7 +1670,7 @@
         <v>2209652.17518519</v>
       </c>
       <c r="L34">
-        <v>159.1426918354235</v>
+        <v>163.544497663774</v>
       </c>
     </row>
     <row r="35">
@@ -1708,7 +1708,7 @@
         <v>1623839.81185185</v>
       </c>
       <c r="L35">
-        <v>113.5412597480834</v>
+        <v>116.1767827479642</v>
       </c>
     </row>
   </sheetData>
